--- a/Inputs/Orient_healthplus/rateSheet.xlsx
+++ b/Inputs/Orient_healthplus/rateSheet.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$1</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="57">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -120,14 +121,90 @@
   <si>
     <t xml:space="preserve">Consultations 20% with AED 50 max, Diagnostics and Pharma 20% co-pay</t>
   </si>
+  <si>
+    <t xml:space="preserve">band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Lite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martialStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0--1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2--7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8--12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13--22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23--28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29--35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36--40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41--45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46--51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52--55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56--59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60--65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66--69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70--74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 &amp; above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">married</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -165,18 +242,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3366FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -220,7 +304,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,7 +333,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,6 +350,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -272,11 +420,11 @@
   </sheetPr>
   <dimension ref="A1:Q577"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="164.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.88"/>
@@ -2572,7 +2720,7 @@
       <c r="A66" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -2607,7 +2755,7 @@
       <c r="A67" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -2642,7 +2790,7 @@
       <c r="A68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -2677,7 +2825,7 @@
       <c r="A69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -2712,7 +2860,7 @@
       <c r="A70" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2747,7 +2895,7 @@
       <c r="A71" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2782,7 +2930,7 @@
       <c r="A72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -2817,7 +2965,7 @@
       <c r="A73" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -2852,7 +3000,7 @@
       <c r="A74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -2887,7 +3035,7 @@
       <c r="A75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -2922,7 +3070,7 @@
       <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -2957,7 +3105,7 @@
       <c r="A77" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -2992,7 +3140,7 @@
       <c r="A78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -3027,7 +3175,7 @@
       <c r="A79" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -3062,7 +3210,7 @@
       <c r="A80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3097,7 +3245,7 @@
       <c r="A81" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3132,7 +3280,7 @@
       <c r="A82" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -3167,7 +3315,7 @@
       <c r="A83" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -3202,7 +3350,7 @@
       <c r="A84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3237,7 +3385,7 @@
       <c r="A85" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3272,7 +3420,7 @@
       <c r="A86" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3307,7 +3455,7 @@
       <c r="A87" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -3342,7 +3490,7 @@
       <c r="A88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3377,7 +3525,7 @@
       <c r="A89" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3412,7 +3560,7 @@
       <c r="A90" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3447,7 +3595,7 @@
       <c r="A91" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3482,7 +3630,7 @@
       <c r="A92" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -3517,7 +3665,7 @@
       <c r="A93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3552,7 +3700,7 @@
       <c r="A94" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -3587,7 +3735,7 @@
       <c r="A95" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -3622,7 +3770,7 @@
       <c r="A96" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -3657,7 +3805,7 @@
       <c r="A97" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -9292,7 +9440,7 @@
       <c r="A258" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -9327,7 +9475,7 @@
       <c r="A259" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -9362,7 +9510,7 @@
       <c r="A260" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -9397,7 +9545,7 @@
       <c r="A261" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -9432,7 +9580,7 @@
       <c r="A262" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C262" s="4" t="s">
@@ -9467,7 +9615,7 @@
       <c r="A263" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -9502,7 +9650,7 @@
       <c r="A264" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C264" s="4" t="s">
@@ -9537,7 +9685,7 @@
       <c r="A265" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -9572,7 +9720,7 @@
       <c r="A266" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -9607,7 +9755,7 @@
       <c r="A267" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C267" s="4" t="s">
@@ -9642,7 +9790,7 @@
       <c r="A268" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -9677,7 +9825,7 @@
       <c r="A269" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -9712,7 +9860,7 @@
       <c r="A270" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C270" s="4" t="s">
@@ -9747,7 +9895,7 @@
       <c r="A271" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -9782,7 +9930,7 @@
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -9817,7 +9965,7 @@
       <c r="A273" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C273" s="4" t="s">
@@ -9852,7 +10000,7 @@
       <c r="A274" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C274" s="4" t="s">
@@ -9887,7 +10035,7 @@
       <c r="A275" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -9922,7 +10070,7 @@
       <c r="A276" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -9957,7 +10105,7 @@
       <c r="A277" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -9992,7 +10140,7 @@
       <c r="A278" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -10027,7 +10175,7 @@
       <c r="A279" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -10062,7 +10210,7 @@
       <c r="A280" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -10097,7 +10245,7 @@
       <c r="A281" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -10132,7 +10280,7 @@
       <c r="A282" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -10167,7 +10315,7 @@
       <c r="A283" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -10202,7 +10350,7 @@
       <c r="A284" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C284" s="4" t="s">
@@ -10237,7 +10385,7 @@
       <c r="A285" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -10272,7 +10420,7 @@
       <c r="A286" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -10307,7 +10455,7 @@
       <c r="A287" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -10342,7 +10490,7 @@
       <c r="A288" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -10377,7 +10525,7 @@
       <c r="A289" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C289" s="4" t="s">
@@ -16012,7 +16160,7 @@
       <c r="A450" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C450" s="4" t="s">
@@ -16047,7 +16195,7 @@
       <c r="A451" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C451" s="4" t="s">
@@ -16082,7 +16230,7 @@
       <c r="A452" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C452" s="4" t="s">
@@ -16117,7 +16265,7 @@
       <c r="A453" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C453" s="4" t="s">
@@ -16152,7 +16300,7 @@
       <c r="A454" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C454" s="4" t="s">
@@ -16187,7 +16335,7 @@
       <c r="A455" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C455" s="4" t="s">
@@ -16222,7 +16370,7 @@
       <c r="A456" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C456" s="4" t="s">
@@ -16257,7 +16405,7 @@
       <c r="A457" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C457" s="4" t="s">
@@ -16292,7 +16440,7 @@
       <c r="A458" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C458" s="4" t="s">
@@ -16327,7 +16475,7 @@
       <c r="A459" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B459" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C459" s="4" t="s">
@@ -16362,7 +16510,7 @@
       <c r="A460" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B460" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C460" s="4" t="s">
@@ -16397,7 +16545,7 @@
       <c r="A461" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C461" s="4" t="s">
@@ -16432,7 +16580,7 @@
       <c r="A462" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C462" s="4" t="s">
@@ -16467,7 +16615,7 @@
       <c r="A463" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C463" s="4" t="s">
@@ -16502,7 +16650,7 @@
       <c r="A464" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C464" s="4" t="s">
@@ -16537,7 +16685,7 @@
       <c r="A465" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C465" s="4" t="s">
@@ -16572,7 +16720,7 @@
       <c r="A466" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C466" s="4" t="s">
@@ -16607,7 +16755,7 @@
       <c r="A467" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C467" s="4" t="s">
@@ -16642,7 +16790,7 @@
       <c r="A468" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C468" s="4" t="s">
@@ -16677,7 +16825,7 @@
       <c r="A469" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C469" s="4" t="s">
@@ -16712,7 +16860,7 @@
       <c r="A470" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B470" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C470" s="4" t="s">
@@ -16747,7 +16895,7 @@
       <c r="A471" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B471" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C471" s="4" t="s">
@@ -16782,7 +16930,7 @@
       <c r="A472" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C472" s="4" t="s">
@@ -16817,7 +16965,7 @@
       <c r="A473" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C473" s="4" t="s">
@@ -16852,7 +17000,7 @@
       <c r="A474" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C474" s="4" t="s">
@@ -16887,7 +17035,7 @@
       <c r="A475" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C475" s="4" t="s">
@@ -16922,7 +17070,7 @@
       <c r="A476" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C476" s="4" t="s">
@@ -16957,7 +17105,7 @@
       <c r="A477" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C477" s="4" t="s">
@@ -16992,7 +17140,7 @@
       <c r="A478" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C478" s="4" t="s">
@@ -17027,7 +17175,7 @@
       <c r="A479" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C479" s="4" t="s">
@@ -17062,7 +17210,7 @@
       <c r="A480" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C480" s="4" t="s">
@@ -17097,7 +17245,7 @@
       <c r="A481" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C481" s="4" t="s">
@@ -20497,4 +20645,1320 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>19490</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>15004</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10010</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>6945</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5915</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>4810</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>17011</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>13097</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>7526</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5475</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4404</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3590</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>7143</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5506</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3458</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1493</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8908</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6864</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4357</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2797</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2247</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1602</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>9083</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6998</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4678</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3673</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2692</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1762</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>10251</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>7897</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5222</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3746</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3604</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2338</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>11568</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8910</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5808</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3947</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3379</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2338</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>12841</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>9889</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6319</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4567</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3921</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2412</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>15549</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>11972</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7243</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5384</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>4495</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3443</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>18265</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>14062</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7996</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5933</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5464</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>3732</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>18442</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>14197</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>8369</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>6288</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5464</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3923</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>27949</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>19978</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>11044</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>8016</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7089</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>5655</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>34524</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>23825</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>13081</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8464</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>5993</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>66659</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>51288</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22352</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>17269</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>15874</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>8578</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>66659</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>51288</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>22352</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>17269</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>15874</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>8578</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>19490</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>15004</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>8356</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>6341</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5915</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>4102</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>17011</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>13097</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>7312</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5034</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4404</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3577</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>7846</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>6048</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3476</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2122</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1675</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>12007</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>9248</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>6722</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3621</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>3281</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2520</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>18408</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>14172</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>7564</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>5542</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>5180</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>3592</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>19328</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>14880</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>7904</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5953</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>5482</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3689</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>16633</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>12806</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>7904</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>5482</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3176</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>16633</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>12806</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>8076</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>5802</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>5332</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3176</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>19279</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>14841</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>8551</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>6448</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>5252</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>4151</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>21411</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>16481</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>9108</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6459</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5795</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>4475</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>29453</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>22667</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>10835</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7762</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6964</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>5526</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>31715</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>22667</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>14735</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>9660</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>8549</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>7407</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>34524</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>23825</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>17613</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>11618</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>10281</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>8901</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>71655</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>55130</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>22352</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>17269</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>15874</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>9533</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>71655</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>55130</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>22352</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>17269</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>15874</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>9533</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>19490</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>15004</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>8356</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>6341</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>5915</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>4102</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>17011</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>13097</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>7312</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>5034</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>4404</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>3577</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>7846</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>6048</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>3476</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2122</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1675</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>15994</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>12314</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>6986</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>5281</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>3579</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>22751</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>17512</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>10904</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>8772</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>8289</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>5666</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>22852</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>17590</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>11558</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>8785</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>8375</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>5819</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>21816</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>16793</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>10779</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8834</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>8515</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>5925</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>21925</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>16893</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10879</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>8873</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>8569</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>5967</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>21202</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>16320</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>10051</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>8048</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>6823</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>4552</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>21411</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>16481</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>11373</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>8060</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>7032</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>5422</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>29453</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>22667</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>12858</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>7971</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>5868</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>31715</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>22667</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>14735</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>9660</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>8549</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>7407</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>34524</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>23825</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>17613</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>11618</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>10281</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>8901</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>71655</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>55130</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>22352</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>17269</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>15874</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>9533</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>71655</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>55130</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>22352</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>17269</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>15874</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>9533</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>